--- a/processed/20221215-meta-iwil-4yc-b_transcript.xlsx
+++ b/processed/20221215-meta-iwil-4yc-b_transcript.xlsx
@@ -125,7 +125,7 @@
     <t>I think the creators need her rights if they fail to take control of an act of bullying, especially with Egypt repeating contact with knowing that they may lose their rights, that way they will have an incentive to take action to eradicate these phenomena if they exist in its spaces</t>
   </si>
   <si>
-    <t>I think the owners of the platform should not intervene to take action against the creators, they should monitor the space that the creators monitor</t>
+    <t>I think the platform owners should not intervene to take action against the creators, they should monitor the space that the creators monitor</t>
   </si>
   <si>
     <t>I think they need to take action early because if not it will just continue</t>
@@ -143,13 +143,13 @@
     <t>I think we can continue</t>
   </si>
   <si>
-    <t>In my opinion, the creators should also undergo training so that they can have the supervision as the platform owners also have to supervise</t>
+    <t>In my opinion, the creators should also go through training so that they can have the same supervision as the platform owners also have to supervise</t>
   </si>
   <si>
     <t>I think it is absolutely necessary for them to go through the creator course so that they support what they are doing and if we read from the cases about one case of bullying in their spaces then it is desirable that they block these creators who will not let them create new spaces</t>
   </si>
   <si>
-    <t>Yes, so I'm also going back as they said they have to go through a course and then for peeling from sanctions to an extent</t>
+    <t>Yes, so I also go back as they said that they have to go through a course and then for peeling from sanctions to an extent</t>
   </si>
   <si>
     <t>I think they should go through a course and ask for it but just as well not to have the matchmaking network messages to act against</t>
@@ -161,7 +161,7 @@
     <t>In my opinion it doesn't make sense who closed them completely doesn't make any sense at all maybe to hide it or activate the sanctions we said but not too much</t>
   </si>
   <si>
-    <t>I also think that access to the spaces should not be restricted and that it belongs to the members only because if there is harassment or bullying in the spaces then stay there and it is desirable that there be supervision and it is desirable that it be visible like at the Merhavim gate</t>
+    <t>I also think that access to the spaces should not be limited to the members only because if there is harassment or bullying in the spaces then stay there and it is desirable that there be supervision and it is desirable that it be visible like at the Merhavim gate</t>
   </si>
   <si>
     <t>I also think that it should not be closed simply that there should be supervision</t>
@@ -191,7 +191,7 @@
     <t>I think it is necessary to know not after one case but on one case</t>
   </si>
   <si>
-    <t>It is possible to refine this question and write down in which cases and in which cases creators will receive lawsuits, whether for one case or a certain number of cases of bullying that is close to it</t>
+    <t>It is possible to refine this question and list in which cases and in which cases creators will receive lawsuits, whether for one case or a certain number of cases of bullying that is close to it</t>
   </si>
   <si>
     <t>I slept a little</t>
